--- a/simulation_data/two_step_algorithm/2s_error_level_6_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_6_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.94580474203025</v>
+        <v>93.55661115716752</v>
       </c>
       <c r="D2" t="n">
-        <v>7.250180768532859</v>
+        <v>6.124459145623854</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.58327906885096</v>
+        <v>91.69790462592908</v>
       </c>
       <c r="D3" t="n">
-        <v>6.327350543288087</v>
+        <v>6.651502298401808</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.62100201478124</v>
+        <v>92.66257855493808</v>
       </c>
       <c r="D4" t="n">
-        <v>7.519028201019738</v>
+        <v>6.998289460238341</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.8156977574842</v>
+        <v>90.14967350319355</v>
       </c>
       <c r="D5" t="n">
-        <v>8.463235196085156</v>
+        <v>6.561075403581642</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>90.11813398676387</v>
+        <v>89.07156994229997</v>
       </c>
       <c r="D6" t="n">
-        <v>7.419803254181411</v>
+        <v>7.104470675363195</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.15107127751044</v>
+        <v>88.76130639584612</v>
       </c>
       <c r="D7" t="n">
-        <v>7.772201351507454</v>
+        <v>7.175597825309931</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.77740495600443</v>
+        <v>86.74922793672054</v>
       </c>
       <c r="D8" t="n">
-        <v>7.327532804543933</v>
+        <v>7.065601591000631</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.29773985337899</v>
+        <v>86.43623381396506</v>
       </c>
       <c r="D9" t="n">
-        <v>7.499396153611401</v>
+        <v>7.668967770065068</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.09401783270705</v>
+        <v>84.48560444007418</v>
       </c>
       <c r="D10" t="n">
-        <v>7.837575951666774</v>
+        <v>6.403718699384836</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.64366687047985</v>
+        <v>83.35634597041289</v>
       </c>
       <c r="D11" t="n">
-        <v>7.629833706207317</v>
+        <v>6.734152098584742</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>83.21785511690983</v>
+        <v>83.13512948581229</v>
       </c>
       <c r="D12" t="n">
-        <v>7.214426885262299</v>
+        <v>6.492664483987033</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.12934928073024</v>
+        <v>80.74395427089658</v>
       </c>
       <c r="D13" t="n">
-        <v>7.674609677719889</v>
+        <v>6.839003117332735</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.17466716638019</v>
+        <v>80.62989081950525</v>
       </c>
       <c r="D14" t="n">
-        <v>6.819515409894958</v>
+        <v>6.005912192901728</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.95820389599956</v>
+        <v>79.96976551226359</v>
       </c>
       <c r="D15" t="n">
-        <v>7.084744314042378</v>
+        <v>7.149307534264093</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.54100784775548</v>
+        <v>79.20390253924842</v>
       </c>
       <c r="D16" t="n">
-        <v>8.240531674976868</v>
+        <v>6.687250608407472</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.20238571871312</v>
+        <v>76.71930000388744</v>
       </c>
       <c r="D17" t="n">
-        <v>7.562431965569287</v>
+        <v>6.149980510421825</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.74047109096765</v>
+        <v>76.62174308503624</v>
       </c>
       <c r="D18" t="n">
-        <v>6.87590343572801</v>
+        <v>5.852820470109367</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.26979421025098</v>
+        <v>75.08743970619639</v>
       </c>
       <c r="D19" t="n">
-        <v>6.633539864795527</v>
+        <v>6.261185573807161</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.85831828327515</v>
+        <v>73.83082737680732</v>
       </c>
       <c r="D20" t="n">
-        <v>7.36957865304595</v>
+        <v>7.982353077714875</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.68808052793554</v>
+        <v>73.62819670208604</v>
       </c>
       <c r="D21" t="n">
-        <v>7.843221913662953</v>
+        <v>7.778268010355155</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.3611557001114</v>
+        <v>70.4991047978197</v>
       </c>
       <c r="D22" t="n">
-        <v>7.152760837884429</v>
+        <v>7.702554413027714</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>73.60209973055751</v>
+        <v>70.97304501965507</v>
       </c>
       <c r="D23" t="n">
-        <v>5.793095366179474</v>
+        <v>7.222496721929645</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.68684269078973</v>
+        <v>69.55325063229071</v>
       </c>
       <c r="D24" t="n">
-        <v>7.328676640791429</v>
+        <v>6.637164958263478</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.26945043591724</v>
+        <v>67.54035184291443</v>
       </c>
       <c r="D25" t="n">
-        <v>6.937032274392342</v>
+        <v>6.676468881133189</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.48706702065499</v>
+        <v>67.3163583754142</v>
       </c>
       <c r="D26" t="n">
-        <v>6.58767973814401</v>
+        <v>7.347932264308678</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.03653986752954</v>
+        <v>66.35216868199588</v>
       </c>
       <c r="D27" t="n">
-        <v>7.186643651122129</v>
+        <v>6.429870117306439</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.89093248531168</v>
+        <v>64.91046659732444</v>
       </c>
       <c r="D28" t="n">
-        <v>7.347353939127467</v>
+        <v>6.59604746319355</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.00436473061394</v>
+        <v>64.63259989828727</v>
       </c>
       <c r="D29" t="n">
-        <v>7.374044013763351</v>
+        <v>6.968680542862866</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.64007890189798</v>
+        <v>62.63782353499258</v>
       </c>
       <c r="D30" t="n">
-        <v>7.064226525369432</v>
+        <v>7.11075861969792</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.03119152655076</v>
+        <v>61.37976149438898</v>
       </c>
       <c r="D31" t="n">
-        <v>6.444947766754708</v>
+        <v>7.276455690732406</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.42964683798861</v>
+        <v>60.94918363034909</v>
       </c>
       <c r="D32" t="n">
-        <v>6.635005368979265</v>
+        <v>7.397810895706179</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.92914399611087</v>
+        <v>60.23663012347575</v>
       </c>
       <c r="D33" t="n">
-        <v>6.703074725310235</v>
+        <v>7.696509803238772</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.67507670829127</v>
+        <v>59.15777676193917</v>
       </c>
       <c r="D34" t="n">
-        <v>6.653397650126004</v>
+        <v>8.069050159114436</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.10294828237398</v>
+        <v>57.14597412430176</v>
       </c>
       <c r="D35" t="n">
-        <v>7.372007891665286</v>
+        <v>7.228218483919984</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.74494352761388</v>
+        <v>56.04036219352513</v>
       </c>
       <c r="D36" t="n">
-        <v>8.020282248193542</v>
+        <v>7.061011889061708</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.01958614883887</v>
+        <v>54.90242143671571</v>
       </c>
       <c r="D37" t="n">
-        <v>7.182875496872057</v>
+        <v>6.721608651658777</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.5732697227944</v>
+        <v>54.368246477045</v>
       </c>
       <c r="D38" t="n">
-        <v>7.128910154139726</v>
+        <v>5.414383942071751</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.81687896402062</v>
+        <v>53.75536681784504</v>
       </c>
       <c r="D39" t="n">
-        <v>7.484786199497379</v>
+        <v>7.708823663623044</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.47578858830366</v>
+        <v>52.63451344412843</v>
       </c>
       <c r="D40" t="n">
-        <v>7.479277182582379</v>
+        <v>7.227790732210182</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.4619291819939</v>
+        <v>51.52317347344689</v>
       </c>
       <c r="D41" t="n">
-        <v>7.305636391590358</v>
+        <v>7.546572991834284</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.19310866846482</v>
+        <v>49.67687741043408</v>
       </c>
       <c r="D42" t="n">
-        <v>7.27564073558549</v>
+        <v>6.595758652136785</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.49002701378758</v>
+        <v>48.9259795881122</v>
       </c>
       <c r="D43" t="n">
-        <v>7.105686528465902</v>
+        <v>7.28958213803671</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.31391235060474</v>
+        <v>49.40833931508436</v>
       </c>
       <c r="D44" t="n">
-        <v>6.526149186136142</v>
+        <v>7.025491716537206</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.73335357163407</v>
+        <v>48.06640483740811</v>
       </c>
       <c r="D45" t="n">
-        <v>7.333320812593564</v>
+        <v>7.417259535537367</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.07153013086947</v>
+        <v>46.18547702104863</v>
       </c>
       <c r="D46" t="n">
-        <v>7.067310060433711</v>
+        <v>6.410376405245357</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.77867157933162</v>
+        <v>45.54852034086798</v>
       </c>
       <c r="D47" t="n">
-        <v>7.318368862274233</v>
+        <v>6.691976794195511</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.39761793753551</v>
+        <v>44.7769178072561</v>
       </c>
       <c r="D48" t="n">
-        <v>6.837087169235287</v>
+        <v>7.568337221765976</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.9792207145554</v>
+        <v>43.1828045027412</v>
       </c>
       <c r="D49" t="n">
-        <v>7.02523093962605</v>
+        <v>7.156394378599744</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.65920561068527</v>
+        <v>42.84703690657096</v>
       </c>
       <c r="D50" t="n">
-        <v>6.954536773342616</v>
+        <v>6.48931519640613</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.26510669320461</v>
+        <v>41.95175317870915</v>
       </c>
       <c r="D51" t="n">
-        <v>8.270362109157283</v>
+        <v>7.427162615143255</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.2081842005301</v>
+        <v>40.76415267051502</v>
       </c>
       <c r="D52" t="n">
-        <v>6.050608385928406</v>
+        <v>6.066284710453035</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.62006039428457</v>
+        <v>39.52332809515993</v>
       </c>
       <c r="D53" t="n">
-        <v>6.410099829883954</v>
+        <v>6.547533979341367</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.41869024335663</v>
+        <v>39.49272081749007</v>
       </c>
       <c r="D54" t="n">
-        <v>7.114236107775159</v>
+        <v>6.715980122282351</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.14728780464596</v>
+        <v>37.31790203042679</v>
       </c>
       <c r="D55" t="n">
-        <v>6.556156744893574</v>
+        <v>6.681043247636815</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.90846451019557</v>
+        <v>36.12000075759305</v>
       </c>
       <c r="D56" t="n">
-        <v>7.009270298773635</v>
+        <v>7.316766302946633</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.06834255315717</v>
+        <v>34.78397691687547</v>
       </c>
       <c r="D57" t="n">
-        <v>7.263292231432727</v>
+        <v>6.485372960632623</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.85024367865631</v>
+        <v>34.42250496484574</v>
       </c>
       <c r="D58" t="n">
-        <v>6.931751634285733</v>
+        <v>6.685214670905718</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.24037757071266</v>
+        <v>33.35850751609562</v>
       </c>
       <c r="D59" t="n">
-        <v>6.235090401481489</v>
+        <v>6.847913890860097</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.51796245539402</v>
+        <v>32.76703645760363</v>
       </c>
       <c r="D60" t="n">
-        <v>7.387691151075088</v>
+        <v>6.557631847149352</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.88786658963707</v>
+        <v>31.34267725466864</v>
       </c>
       <c r="D61" t="n">
-        <v>8.393233142708125</v>
+        <v>6.268351957417575</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.84059606531812</v>
+        <v>29.96543836299446</v>
       </c>
       <c r="D62" t="n">
-        <v>7.093471192895164</v>
+        <v>6.597500235079361</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.60579881207458</v>
+        <v>28.72711636158692</v>
       </c>
       <c r="D63" t="n">
-        <v>6.857040664064735</v>
+        <v>7.554849698445687</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.26914916394053</v>
+        <v>27.94722637639367</v>
       </c>
       <c r="D64" t="n">
-        <v>6.228745370993938</v>
+        <v>6.914984009426514</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.4202023144532</v>
+        <v>26.85696242799598</v>
       </c>
       <c r="D65" t="n">
-        <v>6.925308949634055</v>
+        <v>6.373667453286289</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.57226822465683</v>
+        <v>27.60682880471746</v>
       </c>
       <c r="D66" t="n">
-        <v>6.704023693553482</v>
+        <v>7.193535517252713</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.2585692419199</v>
+        <v>25.11861624284366</v>
       </c>
       <c r="D67" t="n">
-        <v>6.081054588133337</v>
+        <v>7.03094363988411</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.70393524596472</v>
+        <v>22.65027518188944</v>
       </c>
       <c r="D68" t="n">
-        <v>5.907035849354323</v>
+        <v>6.860480599580341</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.45093389169885</v>
+        <v>22.85171777575164</v>
       </c>
       <c r="D69" t="n">
-        <v>6.72516866854595</v>
+        <v>6.986408723503642</v>
       </c>
     </row>
   </sheetData>
